--- a/xlsx/美国平权行动_intext.xlsx
+++ b/xlsx/美国平权行动_intext.xlsx
@@ -29,7 +29,7 @@
     <t>平权法案</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国平权行动</t>
+    <t>政策_政策_美国_美国平权行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E6%A9%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>平等機會</t>
+    <t>平等机会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E5%90%91%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>逆向歧視</t>
+    <t>逆向歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>臉書</t>
+    <t>脸书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E6%B0%91%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1964年民權法案</t>
+    <t>1964年民权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B9%B3%E6%9D%83%E6%B3%95%E6%A1%88</t>
